--- a/Input/KPO-BPO December HC_2Jan'23.xlsx
+++ b/Input/KPO-BPO December HC_2Jan'23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCTPK1\Documents\BCTTimesheet\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450FEC26-DCD8-42C1-B294-6C0682DB944B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ACF3B3-66B4-4AE5-B93D-EFC9250F25AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E587A84D-F539-48CF-B31A-8D1EE02B8D4B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Exit" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Client Details'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Client Details'!$B$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HC!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1641,25 +1641,25 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>329</v>
@@ -1667,129 +1667,129 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>21220</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="1">
-        <v>21254</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>284</v>
+        <v>284</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21254</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>21339</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="16">
         <v>28743</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="B6" s="16">
+      <c r="C6" s="16">
         <v>52003</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>52005</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="16">
+      <c r="C8" s="16">
         <v>52007</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>52013</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>52015</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="1">
         <v>90007</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="1">
         <v>99053</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>282</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C12" xr:uid="{814C04A6-47AD-48AF-BBF9-BBADFC70B9FF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
-      <sortCondition ref="B1:B12"/>
+  <autoFilter ref="B1:C12" xr:uid="{814C04A6-47AD-48AF-BBF9-BBADFC70B9FF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C12">
+      <sortCondition ref="C1:C12"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/KPO-BPO December HC_2Jan'23.xlsx
+++ b/Input/KPO-BPO December HC_2Jan'23.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCTPK1\Documents\BCTTimesheet\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ACF3B3-66B4-4AE5-B93D-EFC9250F25AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA8B5D7-A655-42A8-838D-FCBFE99313C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E587A84D-F539-48CF-B31A-8D1EE02B8D4B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="334">
   <si>
     <t>Emp Code</t>
   </si>
@@ -1032,6 +1032,18 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Task</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1653,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814C04A6-47AD-48AF-BBF9-BBADFC70B9FF}">
-  <dimension ref="A1:I273"/>
+  <dimension ref="A1:L273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,13 +1823,13 @@
     <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1846,7 +1858,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>150337</v>
       </c>
@@ -1872,8 +1884,14 @@
         <v>45412</v>
       </c>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>150352</v>
       </c>
@@ -1899,8 +1917,11 @@
         <v>45412</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>150375</v>
       </c>
@@ -1926,8 +1947,11 @@
         <v>45412</v>
       </c>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>150002</v>
       </c>
@@ -1953,8 +1977,11 @@
         <v>45657</v>
       </c>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>150025</v>
       </c>
@@ -1981,7 +2008,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>150026</v>
       </c>
@@ -2008,7 +2035,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>150036</v>
       </c>
@@ -2035,7 +2062,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>150038</v>
       </c>
@@ -2062,7 +2089,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>150041</v>
       </c>
@@ -2089,7 +2116,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>150069</v>
       </c>
@@ -2116,7 +2143,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>150079</v>
       </c>
@@ -2143,7 +2170,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>150085</v>
       </c>
@@ -2170,7 +2197,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>150093</v>
       </c>
@@ -2197,7 +2224,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>150097</v>
       </c>
@@ -2224,7 +2251,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>150099</v>
       </c>
